--- a/KostenKalkulation.xlsx
+++ b/KostenKalkulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/jomore_microsoft_com/Documents/Github/AzureBlackMagic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="446" documentId="8_{E6C77006-F4FE-42B2-A7F2-1499FC9A709D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{036D6BD3-C8CB-493F-874C-D55C1B275F77}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="8_{E6C77006-F4FE-42B2-A7F2-1499FC9A709D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{E40739DE-9E55-4606-B348-C431DFA926CC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25714" windowHeight="12849" xr2:uid="{301A4869-1C44-4E24-8A48-0E6588666D8F}"/>
   </bookViews>
@@ -787,7 +787,7 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1549,7 +1549,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="G23" s="36">
-        <f>F23*$L$11</f>
+        <f t="shared" ref="G23:G30" si="2">F23*$L$11</f>
         <v>62.779999999999994</v>
       </c>
       <c r="H23" s="24" t="s">
@@ -1559,22 +1559,22 @@
         <v>1</v>
       </c>
       <c r="J23" s="36">
-        <f>LOOKUP(H23,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" ref="J23:J30" si="3">LOOKUP(H23,$Q$11:$Q$26,$T$11:$T$26)</f>
         <v>1.3</v>
       </c>
       <c r="K23" s="36">
-        <f>J23*I23</f>
+        <f t="shared" ref="K23:K30" si="4">J23*I23</f>
         <v>1.3</v>
       </c>
       <c r="L23" s="24" t="s">
         <v>47</v>
       </c>
       <c r="M23" s="36">
-        <f>LOOKUP(L23,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" ref="M23:M30" si="5">LOOKUP(L23,$Q$11:$Q$26,$T$11:$T$26)</f>
         <v>1.3</v>
       </c>
       <c r="N23" s="30">
-        <f>K23+M23</f>
+        <f t="shared" ref="N23:N30" si="6">K23+M23</f>
         <v>2.6</v>
       </c>
       <c r="Q23" t="s">
@@ -1612,7 +1612,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="G24" s="36">
-        <f>F24*$L$11</f>
+        <f t="shared" si="2"/>
         <v>18.98</v>
       </c>
       <c r="H24" s="24" t="s">
@@ -1622,22 +1622,22 @@
         <v>0</v>
       </c>
       <c r="J24" s="36">
-        <f>LOOKUP(H24,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
       <c r="K24" s="36">
-        <f>J24*I24</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L24" s="24" t="s">
         <v>47</v>
       </c>
       <c r="M24" s="36">
-        <f>LOOKUP(L24,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
       <c r="N24" s="30">
-        <f>K24+M24</f>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
       <c r="Q24" t="s">
@@ -1675,7 +1675,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="G25" s="36">
-        <f>F25*$L$11</f>
+        <f t="shared" si="2"/>
         <v>18.98</v>
       </c>
       <c r="H25" s="24" t="s">
@@ -1685,22 +1685,22 @@
         <v>0</v>
       </c>
       <c r="J25" s="36">
-        <f>LOOKUP(H25,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
       <c r="K25" s="36">
-        <f>J25*I25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L25" s="24" t="s">
         <v>47</v>
       </c>
       <c r="M25" s="36">
-        <f>LOOKUP(L25,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
       <c r="N25" s="30">
-        <f>K25+M25</f>
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
       <c r="Q25" t="s">
@@ -1738,7 +1738,7 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="G26" s="36">
-        <f>F26*$L$11</f>
+        <f t="shared" si="2"/>
         <v>122.64</v>
       </c>
       <c r="H26" s="24" t="s">
@@ -1748,22 +1748,22 @@
         <v>1</v>
       </c>
       <c r="J26" s="36">
-        <f>LOOKUP(H26,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="3"/>
         <v>16.63</v>
       </c>
       <c r="K26" s="36">
-        <f>J26*I26</f>
+        <f t="shared" si="4"/>
         <v>16.63</v>
       </c>
       <c r="L26" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M26" s="36">
-        <f>LOOKUP(L26,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="5"/>
         <v>4.46</v>
       </c>
       <c r="N26" s="30">
-        <f>K26+M26</f>
+        <f t="shared" si="6"/>
         <v>21.09</v>
       </c>
       <c r="Q26" t="s">
@@ -1801,7 +1801,7 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="G27" s="36">
-        <f>F27*$L$11</f>
+        <f t="shared" si="2"/>
         <v>100.01</v>
       </c>
       <c r="H27" s="24" t="s">
@@ -1811,22 +1811,22 @@
         <v>0</v>
       </c>
       <c r="J27" s="36">
-        <f>LOOKUP(H27,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="3"/>
         <v>4.46</v>
       </c>
       <c r="K27" s="36">
-        <f>J27*I27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L27" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M27" s="36">
-        <f>LOOKUP(L27,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="5"/>
         <v>4.46</v>
       </c>
       <c r="N27" s="30">
-        <f>K27+M27</f>
+        <f t="shared" si="6"/>
         <v>4.46</v>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="G28" s="36">
-        <f>F28*$L$11</f>
+        <f t="shared" si="2"/>
         <v>142.35</v>
       </c>
       <c r="H28" s="24" t="s">
@@ -1860,22 +1860,22 @@
         <v>1</v>
       </c>
       <c r="J28" s="36">
-        <f>LOOKUP(H28,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="3"/>
         <v>18.36</v>
       </c>
       <c r="K28" s="36">
-        <f>J28*I28</f>
+        <f t="shared" si="4"/>
         <v>18.36</v>
       </c>
       <c r="L28" s="24" t="s">
         <v>47</v>
       </c>
       <c r="M28" s="36">
-        <f>LOOKUP(L28,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
       <c r="N28" s="30">
-        <f>K28+M28</f>
+        <f t="shared" si="6"/>
         <v>19.66</v>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
         <v>0.54</v>
       </c>
       <c r="G29" s="36">
-        <f>F29*$L$11</f>
+        <f t="shared" si="2"/>
         <v>394.20000000000005</v>
       </c>
       <c r="H29" s="24" t="s">
@@ -1909,22 +1909,22 @@
         <v>3</v>
       </c>
       <c r="J29" s="36">
-        <f>LOOKUP(H29,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="3"/>
         <v>113.99</v>
       </c>
       <c r="K29" s="36">
-        <f>J29*I29</f>
+        <f t="shared" si="4"/>
         <v>341.96999999999997</v>
       </c>
       <c r="L29" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M29" s="36">
-        <f>LOOKUP(L29,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="5"/>
         <v>4.46</v>
       </c>
       <c r="N29" s="30">
-        <f>K29+M29</f>
+        <f t="shared" si="6"/>
         <v>346.42999999999995</v>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="G30" s="36">
-        <f>F30*$L$11</f>
+        <f t="shared" si="2"/>
         <v>356.24</v>
       </c>
       <c r="H30" s="24" t="s">
@@ -1958,22 +1958,22 @@
         <v>3</v>
       </c>
       <c r="J30" s="36">
-        <f>LOOKUP(H30,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="3"/>
         <v>113.99</v>
       </c>
       <c r="K30" s="36">
-        <f>J30*I30</f>
+        <f t="shared" si="4"/>
         <v>341.96999999999997</v>
       </c>
       <c r="L30" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M30" s="36">
-        <f>LOOKUP(L30,$Q$11:$Q$26,$T$11:$T$26)</f>
+        <f t="shared" si="5"/>
         <v>4.46</v>
       </c>
       <c r="N30" s="30">
-        <f>K30+M30</f>
+        <f t="shared" si="6"/>
         <v>346.42999999999995</v>
       </c>
     </row>
